--- a/OpenWaters/OpenWaters/Tests/Samp_Example.xlsx
+++ b/OpenWaters/OpenWaters/Tests/Samp_Example.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample_ImportTemplate-03282015" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample Example" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>Activity Start Date</t>
   </si>
@@ -902,6 +902,36 @@
   </si>
   <si>
     <t>Act_050</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>Inorganic nitrogen (nitrate and nitrite)</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2089,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ57"/>
+  <dimension ref="A1:DJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE5" sqref="A5:BE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,52 +2133,52 @@
     <col min="4" max="4" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.7109375" style="12" customWidth="1"/>
-    <col min="50" max="50" width="27.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="12" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="12" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.140625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="25.5703125" style="12" customWidth="1"/>
+    <col min="42" max="42" width="19.28515625" style="12" customWidth="1"/>
+    <col min="43" max="43" width="30" style="12" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="0.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="15" style="12" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="23.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="23.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="27" style="12" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="25.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -3051,8 +3081,8 @@
       <c r="E6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="19">
-        <v>42563.34375</v>
+      <c r="F6" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="19">
@@ -3114,13 +3144,22 @@
       <c r="AW6" s="12" t="s">
         <v>236</v>
       </c>
+      <c r="BA6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="7" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>138</v>
@@ -3131,18 +3170,15 @@
       <c r="E7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.38680555555555557</v>
-      </c>
+      <c r="F7" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="19">
+        <v>42563.345138888886</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="14" t="s">
         <v>139</v>
       </c>
@@ -3152,17 +3188,70 @@
       <c r="M7" s="14" t="s">
         <v>152</v>
       </c>
+      <c r="N7" s="12">
+        <v>10</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="S7" s="14" t="s">
-        <v>220</v>
+        <v>129</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AN7" s="12" t="s">
         <v>218</v>
       </c>
+      <c r="AO7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B8" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>138</v>
@@ -3188,19 +3277,70 @@
       <c r="L8" s="12">
         <v>11</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="14" t="s">
         <v>152</v>
       </c>
+      <c r="N8" s="12">
+        <v>10</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="S8" s="14" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>140</v>
+      <c r="A9" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>138</v>
@@ -3223,15 +3363,74 @@
       <c r="K9" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S9" s="12" t="s">
-        <v>123</v>
+      <c r="L9" s="12">
+        <v>11</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="12">
+        <v>10</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR9" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="C10" s="12" t="s">
         <v>138</v>
       </c>
@@ -3241,28 +3440,44 @@
       <c r="E10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="19">
-        <v>42563.34375</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="19">
-        <v>42563.345138888886</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.38680555555555557</v>
+      </c>
       <c r="K10" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="12" t="s">
-        <v>124</v>
+      <c r="L10" s="12">
+        <v>11</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>143</v>
+      <c r="A11" s="20"/>
+      <c r="B11" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>138</v>
@@ -3285,18 +3500,38 @@
       <c r="K11" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>125</v>
+      <c r="L11" s="12">
+        <v>11</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>134</v>
+      <c r="A12" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" s="14" t="s">
         <v>132</v>
       </c>
@@ -3316,18 +3551,25 @@
         <v>139</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>146</v>
+      <c r="B13" s="21"/>
+      <c r="C13" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>132</v>
@@ -3348,20 +3590,31 @@
         <v>139</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>147</v>
+      <c r="B14" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>136</v>
       </c>
@@ -3378,7 +3631,16 @@
         <v>139</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.25">
@@ -3386,13 +3648,11 @@
         <v>134</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>136</v>
@@ -3410,7 +3670,19 @@
         <v>139</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:114" x14ac:dyDescent="0.25">
@@ -3418,16 +3690,16 @@
         <v>134</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>146</v>
+      <c r="E16" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="19">
         <v>42563.34375</v>
@@ -3442,26 +3714,35 @@
         <v>139</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="19">
+        <v>42563.34375</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="19">
         <v>42563.345138888886</v>
@@ -3471,34 +3752,37 @@
       <c r="K17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L17" s="12">
-        <v>11</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="S17" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>132</v>
+      <c r="D18" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>146</v>
+      <c r="F18" s="19">
+        <v>42563.34375</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="19">
@@ -3509,60 +3793,69 @@
       <c r="K18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L18" s="12">
-        <v>11</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="S18" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>136</v>
+      <c r="E19" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="F19" s="19">
         <v>42563.34375</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="21" t="s">
-        <v>146</v>
+      <c r="H19" s="19">
+        <v>42563.345138888886</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="12">
-        <v>11</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="S19" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>138</v>
@@ -3573,28 +3866,41 @@
       <c r="E20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="19">
-        <v>42563.34375</v>
-      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>146</v>
-      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
         <v>139</v>
       </c>
+      <c r="L20" s="12">
+        <v>11</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="S20" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>138</v>
@@ -3605,25 +3911,43 @@
       <c r="E21" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="19">
-        <v>42563.34375</v>
-      </c>
+      <c r="F21" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="13"/>
       <c r="H21" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>146</v>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="12">
+        <v>11</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>138</v>
@@ -3637,25 +3961,40 @@
       <c r="F22" s="19">
         <v>42563.34375</v>
       </c>
-      <c r="H22" s="19">
-        <v>42563.345138888886</v>
-      </c>
-      <c r="L22" s="43">
-        <v>123456.7899872</v>
+      <c r="G22" s="13"/>
+      <c r="H22" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="12">
+        <v>11</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>152</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>138</v>
@@ -3672,22 +4011,34 @@
       <c r="H23" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="L23" s="12">
-        <v>11</v>
-      </c>
-      <c r="M23" s="21" t="s">
+      <c r="J23" s="21" t="s">
         <v>146</v>
       </c>
+      <c r="K23" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="S23" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>138</v>
@@ -3702,24 +4053,30 @@
         <v>42563.34375</v>
       </c>
       <c r="H24" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="N24" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>152</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>138</v>
@@ -3734,24 +4091,33 @@
         <v>42563.34375</v>
       </c>
       <c r="H25" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="N25" s="12">
-        <v>11</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>146</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="L25" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>138</v>
@@ -3766,24 +4132,33 @@
         <v>42563.34375</v>
       </c>
       <c r="H26" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="P26" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>152</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="L26" s="12">
+        <v>11</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>138</v>
@@ -3800,22 +4175,34 @@
       <c r="H27" s="19">
         <v>42563.34513883102</v>
       </c>
-      <c r="P27" s="12">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>146</v>
+      <c r="N27" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>138</v>
@@ -3832,19 +4219,31 @@
       <c r="H28" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="N28" s="12">
+        <v>11</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="S28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>138</v>
@@ -3861,22 +4260,31 @@
       <c r="H29" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="P29" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="S29" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="U29" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="BA29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE29" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>138</v>
@@ -3893,22 +4301,31 @@
       <c r="H30" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="P30" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="S30" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="U30" s="12">
-        <v>11</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="BA30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE30" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>138</v>
@@ -3926,21 +4343,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="W31" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="X31" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>138</v>
@@ -3958,18 +4384,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="X32" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="U32" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE32" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>138</v>
@@ -3987,21 +4425,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y33" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="Z33" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="U33" s="12">
+        <v>11</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE33" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>138</v>
@@ -4019,21 +4466,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y34" s="12">
-        <v>11</v>
-      </c>
-      <c r="Z34" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X34" s="12">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE34" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>138</v>
@@ -4051,21 +4507,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA35" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AB35" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>138</v>
@@ -4083,21 +4548,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA36" s="12">
-        <v>11</v>
-      </c>
-      <c r="AB36" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="Y36" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE36" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>138</v>
@@ -4115,18 +4589,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC37" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>11</v>
+      </c>
+      <c r="Z37" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BA37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE37" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>138</v>
@@ -4144,18 +4630,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD38" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="AA38" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AB38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD38" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE38" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>138</v>
@@ -4173,21 +4671,33 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE39" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AF39" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB39" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD39" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>138</v>
@@ -4205,21 +4715,27 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE40" s="12">
-        <v>11</v>
-      </c>
-      <c r="AF40" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC40" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BA40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE40" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>138</v>
@@ -4237,21 +4753,27 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG41" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AH41" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="AD41" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD41" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>138</v>
@@ -4269,21 +4791,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG42" s="12">
-        <v>11</v>
-      </c>
-      <c r="AH42" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="AE42" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AF42" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD42" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>138</v>
@@ -4301,21 +4832,33 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI43" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AJ43" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="AE43" s="12">
+        <v>11</v>
+      </c>
+      <c r="AF43" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD43" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE43" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>138</v>
@@ -4333,21 +4876,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI44" s="12">
-        <v>11</v>
-      </c>
-      <c r="AJ44" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="AG44" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AH44" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD44" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE44" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>138</v>
@@ -4365,21 +4917,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK45" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AL45" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="AG45" s="12">
+        <v>11</v>
+      </c>
+      <c r="AH45" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD45" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE45" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>138</v>
@@ -4397,21 +4958,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK46" s="12">
-        <v>11</v>
-      </c>
-      <c r="AL46" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="AI46" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AJ46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD46" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE46" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>138</v>
@@ -4429,18 +4999,33 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM47" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI47" s="12">
+        <v>11</v>
+      </c>
+      <c r="AJ47" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="BA47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD47" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE47" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>138</v>
@@ -4458,18 +5043,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S48" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN48" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="AK48" s="43">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AL48" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD48" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE48" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>138</v>
@@ -4487,21 +5084,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN49" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO49" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK49" s="12">
+        <v>11</v>
+      </c>
+      <c r="AL49" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="BA49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD49" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE49" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>138</v>
@@ -4519,21 +5125,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP50" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM50" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="BA50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD50" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE50" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>132</v>
@@ -4548,22 +5163,33 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN51" s="21"/>
-      <c r="AP51" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="AN51" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD51" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE51" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>132</v>
@@ -4578,22 +5204,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AN52" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AO52" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP52" s="21"/>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO52" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD52" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE52" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>138</v>
@@ -4611,21 +5245,30 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR53" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP53" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="BA53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD53" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE53" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>132</v>
@@ -4640,24 +5283,31 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR54" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS54" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="AN54" s="21"/>
+      <c r="AP54" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD54" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE54" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>132</v>
@@ -4672,18 +5322,34 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT55" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="AN55" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO55" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP55" s="21"/>
+      <c r="BA55" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD55" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE55" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>138</v>
@@ -4701,18 +5367,27 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU56" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR56" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="BA56" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD56" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE56" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>138</v>
@@ -4730,10 +5405,150 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S57" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR57" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS57" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD57" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H58" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT58" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD58" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE58" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H59" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU59" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC59" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD59" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE59" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H60" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S60" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AW57" s="21" t="s">
+      <c r="AW60" s="21" t="s">
         <v>146</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD60" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE60" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BA61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD61" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE61" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/OpenWaters/OpenWaters/Tests/Samp_Example.xlsx
+++ b/OpenWaters/OpenWaters/Tests/Samp_Example.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sample Example" sheetId="1" r:id="rId1"/>
+    <sheet name="Cross Tab" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="419">
   <si>
     <t>Activity Start Date</t>
   </si>
@@ -907,18 +908,6 @@
     <t>pH</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Arsenic</t>
   </si>
   <si>
@@ -932,6 +921,504 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Act_051</t>
+  </si>
+  <si>
+    <t>Act_052</t>
+  </si>
+  <si>
+    <t>Act_053</t>
+  </si>
+  <si>
+    <t>Act_054</t>
+  </si>
+  <si>
+    <t>Act_056</t>
+  </si>
+  <si>
+    <t>Act_057</t>
+  </si>
+  <si>
+    <t>Act_058</t>
+  </si>
+  <si>
+    <t>Act_059</t>
+  </si>
+  <si>
+    <t>Act_060</t>
+  </si>
+  <si>
+    <t>Act_061</t>
+  </si>
+  <si>
+    <t>Act_062</t>
+  </si>
+  <si>
+    <t>1234567890123450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passing case of detection condition </t>
+  </si>
+  <si>
+    <t>NOT DETECTED</t>
+  </si>
+  <si>
+    <t>Fail for invalid Characteristic Name</t>
+  </si>
+  <si>
+    <t>as NN</t>
+  </si>
+  <si>
+    <t>as P</t>
+  </si>
+  <si>
+    <t>Fail for invalid method speciation</t>
+  </si>
+  <si>
+    <t>Fail for missing sample fraction for pollutant that needs it</t>
+  </si>
+  <si>
+    <t>Fail for invalid Sample Fraction</t>
+  </si>
+  <si>
+    <t>Fail for invalid Result Measure Unit</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Failfor invalid Result Measure Qualifier</t>
+  </si>
+  <si>
+    <t>Fail for invalid Result Status</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Act_063</t>
+  </si>
+  <si>
+    <t>Act_064</t>
+  </si>
+  <si>
+    <t>Act_065</t>
+  </si>
+  <si>
+    <t>Act_066</t>
+  </si>
+  <si>
+    <t>Act_067</t>
+  </si>
+  <si>
+    <t>Act_068</t>
+  </si>
+  <si>
+    <t>Act_069</t>
+  </si>
+  <si>
+    <t>Act_070</t>
+  </si>
+  <si>
+    <t>Fail for invalid statistical base code</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Fail for invalid Result Value Type</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>10 Deg C</t>
+  </si>
+  <si>
+    <t>Fail for invalid Weight Basis</t>
+  </si>
+  <si>
+    <t>Fail for invalid Time Basis</t>
+  </si>
+  <si>
+    <t>Fail for invalid Temp Basis</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>Fail for precision too long</t>
+  </si>
+  <si>
+    <t>Fail for bias too long</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnop</t>
+  </si>
+  <si>
+    <t>Act_071</t>
+  </si>
+  <si>
+    <t>Act_072</t>
+  </si>
+  <si>
+    <t>Act_073</t>
+  </si>
+  <si>
+    <t>Act_074</t>
+  </si>
+  <si>
+    <t>Act_075</t>
+  </si>
+  <si>
+    <t>Act_076</t>
+  </si>
+  <si>
+    <t>Act_077</t>
+  </si>
+  <si>
+    <t>Act_078</t>
+  </si>
+  <si>
+    <t>Act_079</t>
+  </si>
+  <si>
+    <t>Act_080</t>
+  </si>
+  <si>
+    <t>Act_081</t>
+  </si>
+  <si>
+    <t>Act_082</t>
+  </si>
+  <si>
+    <t>Act_083</t>
+  </si>
+  <si>
+    <t>Act_084</t>
+  </si>
+  <si>
+    <t>Act_085</t>
+  </si>
+  <si>
+    <t>Act_086</t>
+  </si>
+  <si>
+    <t>Act_087</t>
+  </si>
+  <si>
+    <t>Act_088</t>
+  </si>
+  <si>
+    <t>Act_089</t>
+  </si>
+  <si>
+    <t>Act_090</t>
+  </si>
+  <si>
+    <t>Fail for confidence interval too long</t>
+  </si>
+  <si>
+    <t>Fail for upper confidence level too long</t>
+  </si>
+  <si>
+    <t>Fail for lower confidence level too long</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>QQQQQQQQQQQQQ</t>
+  </si>
+  <si>
+    <t>Fail for invalid Result Depth Unit</t>
+  </si>
+  <si>
+    <t>Fail for Result Depth too long</t>
+  </si>
+  <si>
+    <t>Group Summary</t>
+  </si>
+  <si>
+    <t>Fail for Invalid biological intent name</t>
+  </si>
+  <si>
+    <t>Abietinaria</t>
+  </si>
+  <si>
+    <t>Fail for bio individual length exceeded</t>
+  </si>
+  <si>
+    <t>Fail for taxonomy reported with no bio intent</t>
+  </si>
+  <si>
+    <t>Fail for invalid taxonomy</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Fail for invalid Sample Tissue Anatomy</t>
+  </si>
+  <si>
+    <t>Fail for Group Summary Unit</t>
+  </si>
+  <si>
+    <t>Diatom</t>
+  </si>
+  <si>
+    <t>Lunate</t>
+  </si>
+  <si>
+    <t>Clinger</t>
+  </si>
+  <si>
+    <t>Bivoltine</t>
+  </si>
+  <si>
+    <t>Fail for invalid voltinism</t>
+  </si>
+  <si>
+    <t>Fail for invalid cell form</t>
+  </si>
+  <si>
+    <t>Fail for invalid cell shape</t>
+  </si>
+  <si>
+    <t>Fail for invalid habit</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>QQQQQ</t>
+  </si>
+  <si>
+    <t>QQQQQQQQ</t>
+  </si>
+  <si>
+    <t>QQQQQQQQQQ</t>
+  </si>
+  <si>
+    <t>Act_091</t>
+  </si>
+  <si>
+    <t>Act_092</t>
+  </si>
+  <si>
+    <t>Act_093</t>
+  </si>
+  <si>
+    <t>Act_094</t>
+  </si>
+  <si>
+    <t>Act_095</t>
+  </si>
+  <si>
+    <t>Act_096</t>
+  </si>
+  <si>
+    <t>Act_097</t>
+  </si>
+  <si>
+    <t>Act_098</t>
+  </si>
+  <si>
+    <t>Act_099</t>
+  </si>
+  <si>
+    <t>Act_100</t>
+  </si>
+  <si>
+    <t>Act_101</t>
+  </si>
+  <si>
+    <t>Act_102</t>
+  </si>
+  <si>
+    <t>Act_103</t>
+  </si>
+  <si>
+    <t>Fail for invalid trophic level</t>
+  </si>
+  <si>
+    <t>Fail for invalid pollution tollerance</t>
+  </si>
+  <si>
+    <t>Fail for functional feeding group length</t>
+  </si>
+  <si>
+    <t>Fail for invalid frequency class</t>
+  </si>
+  <si>
+    <t>Fail for invalid frequency class unit</t>
+  </si>
+  <si>
+    <t>Fail for frequency class bound length</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Abalistes</t>
+  </si>
+  <si>
+    <t>Fail for invalid anal method ID</t>
+  </si>
+  <si>
+    <t>Fail for invalid anal method context</t>
+  </si>
+  <si>
+    <t>7/13/2016</t>
+  </si>
+  <si>
+    <t>Fail for invalid analysis end date</t>
+  </si>
+  <si>
+    <t>Fail for invalid analysis start date</t>
+  </si>
+  <si>
+    <t>Fail for lab name length</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Fail for invalid lab comment code</t>
+  </si>
+  <si>
+    <t>Pass for missing analytical method context, changed to ORG ID</t>
+  </si>
+  <si>
+    <t>Act_104</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethane</t>
+  </si>
+  <si>
+    <t>Passes - also showing populate missing PBQL</t>
+  </si>
+  <si>
+    <t>PBQL</t>
+  </si>
+  <si>
+    <t>Passes - also showing populate missing PAQL</t>
+  </si>
+  <si>
+    <t>PAQL</t>
+  </si>
+  <si>
+    <t>Act_001b</t>
+  </si>
+  <si>
+    <t>Act_001c</t>
+  </si>
+  <si>
+    <t>Passes - reporting PAQL using reported QL</t>
+  </si>
+  <si>
+    <t>Accurate Environmental-Stillwater</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Fail for Data logger line length exceeded</t>
+  </si>
+  <si>
+    <t>Fail for invalid Result detection condition text</t>
+  </si>
+  <si>
+    <t>Fail for Result detection condition or result must be reported.</t>
+  </si>
+  <si>
+    <t>Pass demonstrating supplying org default unit code</t>
+  </si>
+  <si>
+    <t>Fail for Particle size basis too long</t>
+  </si>
+  <si>
+    <t>Passes - also showing populate missing unit, anal method, and samp fract</t>
+  </si>
+  <si>
+    <t>Act_001d</t>
+  </si>
+  <si>
+    <t>Passes - demonstrates population of org char default MDL for ND</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Temp deg C</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>Deg C</t>
+  </si>
+  <si>
+    <t>NC001</t>
+  </si>
+  <si>
+    <t>SHWN01</t>
+  </si>
+  <si>
+    <t>SHWS02</t>
+  </si>
+  <si>
+    <t>TB03</t>
+  </si>
+  <si>
+    <t>TB04</t>
+  </si>
+  <si>
+    <t>TB07</t>
+  </si>
+  <si>
+    <t>TB11</t>
+  </si>
+  <si>
+    <t>LR01</t>
+  </si>
+  <si>
+    <t>LR03</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Mon Loc</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1428,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1688,7 +2175,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1712,6 +2199,20 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="6" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="7" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1766,9 +2267,6 @@
     <xf numFmtId="0" fontId="16" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="3" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2119,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ61"/>
+  <dimension ref="A1:DJ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE5" sqref="A5:BE60"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,57 +2631,57 @@
     <col min="4" max="4" width="14" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="25.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="12" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="12" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="12" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="13.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="64" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.140625" style="12" customWidth="1"/>
     <col min="41" max="41" width="25.5703125" style="12" customWidth="1"/>
-    <col min="42" max="42" width="19.28515625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="30" style="12" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="0.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="14.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="15" style="12" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="12" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="23.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="27" style="12" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="25.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" style="12" customWidth="1"/>
+    <col min="43" max="43" width="37.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
@@ -2594,132 +3092,132 @@
       <c r="DJ3" s="5"/>
     </row>
     <row r="4" spans="1:114" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32" t="s">
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="35" t="s">
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="38" t="s">
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="23" t="s">
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="53"/>
+      <c r="CI4" s="53"/>
+      <c r="CJ4" s="53"/>
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="53"/>
+      <c r="CM4" s="53"/>
+      <c r="CN4" s="53"/>
+      <c r="CO4" s="53"/>
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="54"/>
+      <c r="CR4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="CS4" s="24"/>
-      <c r="CT4" s="24"/>
-      <c r="CU4" s="24"/>
-      <c r="CV4" s="24"/>
-      <c r="CW4" s="24"/>
-      <c r="CX4" s="24"/>
-      <c r="CY4" s="24"/>
-      <c r="CZ4" s="24"/>
-      <c r="DA4" s="24"/>
-      <c r="DB4" s="24"/>
-      <c r="DC4" s="24"/>
-      <c r="DD4" s="24"/>
-      <c r="DE4" s="24"/>
-      <c r="DF4" s="24"/>
-      <c r="DG4" s="24"/>
-      <c r="DH4" s="24"/>
-      <c r="DI4" s="24"/>
-      <c r="DJ4" s="25"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38"/>
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="39"/>
     </row>
     <row r="5" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3081,8 +3579,8 @@
       <c r="E6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>146</v>
+      <c r="F6" s="19">
+        <v>42563.34375</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="19">
@@ -3120,6 +3618,24 @@
       <c r="T6" s="12" t="s">
         <v>184</v>
       </c>
+      <c r="U6" s="12">
+        <v>4</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="AN6" s="12" t="s">
         <v>218</v>
       </c>
@@ -3151,7 +3667,118 @@
         <v>7.7</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BG6" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH6" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI6" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ6" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK6" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL6" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM6" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN6" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="BO6" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="BP6" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="BQ6" s="16">
+        <v>7.7009999999999996</v>
+      </c>
+      <c r="BR6" s="16">
+        <v>7.6989999999999998</v>
+      </c>
+      <c r="BS6" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="BT6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV6" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW6" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="BY6" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="CA6" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="CD6" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="CE6" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="CF6" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="CG6" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH6" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="CR6" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="CS6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="CT6" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="CU6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="CV6" s="13">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="CW6" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX6" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="CY6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="DE6" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG6" s="17">
+        <v>42464</v>
+      </c>
+      <c r="DI6" s="34">
+        <v>42465</v>
+      </c>
+      <c r="DJ6" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:114" x14ac:dyDescent="0.25">
@@ -3204,10 +3831,7 @@
         <v>171</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="AN7" s="12" t="s">
         <v>218</v>
@@ -3234,17 +3858,14 @@
         <v>236</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="BD7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="CU7" s="30"/>
+      <c r="CV7" s="33"/>
+      <c r="CW7" s="30"/>
     </row>
     <row r="8" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -3296,7 +3917,7 @@
         <v>171</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>184</v>
@@ -3325,14 +3946,14 @@
       <c r="AW8" s="12" t="s">
         <v>236</v>
       </c>
+      <c r="AZ8" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="BA8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:114" x14ac:dyDescent="0.25">
@@ -3340,7 +3961,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>138</v>
@@ -3385,7 +4006,7 @@
         <v>171</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>129</v>
+        <v>384</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>184</v>
@@ -3414,14 +4035,14 @@
       <c r="AW9" s="12" t="s">
         <v>236</v>
       </c>
+      <c r="AZ9" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="BA9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.25">
@@ -3429,7 +4050,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>138</v>
@@ -3440,18 +4061,15 @@
       <c r="E10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.38680555555555557</v>
-      </c>
+      <c r="F10" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19">
+        <v>42563.345138888886</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
         <v>139</v>
       </c>
@@ -3461,23 +4079,70 @@
       <c r="M10" s="14" t="s">
         <v>152</v>
       </c>
+      <c r="N10" s="12">
+        <v>10</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="S10" s="14" t="s">
-        <v>220</v>
+        <v>388</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="BE10" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DB10" s="16">
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>397</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>138</v>
@@ -3503,31 +4168,70 @@
       <c r="L11" s="12">
         <v>11</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="14" t="s">
         <v>152</v>
       </c>
+      <c r="N11" s="12">
+        <v>10</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="S11" s="14" t="s">
-        <v>122</v>
+        <v>398</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU11" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="BA11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC11" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BC11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="BE11" s="1" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="12" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>140</v>
+      <c r="A12" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>138</v>
@@ -3550,24 +4254,77 @@
       <c r="K12" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>123</v>
+      <c r="L12" s="12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="12">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW12" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="BD12" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE12" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="C13" s="12" t="s">
         <v>138</v>
       </c>
@@ -3577,37 +4334,44 @@
       <c r="E13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="19">
-        <v>42563.34375</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="19">
-        <v>42563.345138888886</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.38680555555555557</v>
+      </c>
       <c r="K13" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="12" t="s">
-        <v>124</v>
+      <c r="L13" s="12">
+        <v>11</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD13" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>143</v>
+      <c r="A14" s="20"/>
+      <c r="B14" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>138</v>
@@ -3630,27 +4394,38 @@
       <c r="K14" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>125</v>
+      <c r="L14" s="12">
+        <v>11</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD14" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>134</v>
+      <c r="A15" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>132</v>
       </c>
@@ -3670,30 +4445,25 @@
         <v>139</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD15" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>146</v>
+      <c r="B16" s="21"/>
+      <c r="C16" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>132</v>
@@ -3714,29 +4484,31 @@
         <v>139</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD16" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>147</v>
+      <c r="B17" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>136</v>
       </c>
@@ -3753,16 +4525,16 @@
         <v>139</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD17" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
@@ -3770,13 +4542,11 @@
         <v>134</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>136</v>
@@ -3794,16 +4564,19 @@
         <v>139</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BA18" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD18" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE18" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
@@ -3811,16 +4584,16 @@
         <v>134</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>146</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="19">
         <v>42563.34375</v>
@@ -3835,19 +4608,16 @@
         <v>139</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="BA19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD19" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE19" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
@@ -3855,18 +4625,18 @@
         <v>134</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="19">
+        <v>42563.34375</v>
+      </c>
       <c r="G20" s="13"/>
       <c r="H20" s="19">
         <v>42563.345138888886</v>
@@ -3876,23 +4646,17 @@
       <c r="K20" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="12">
-        <v>11</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="S20" s="12" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD20" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
@@ -3900,19 +4664,19 @@
         <v>134</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>132</v>
+      <c r="D21" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>146</v>
+      <c r="F21" s="19">
+        <v>42563.34375</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="19">
@@ -3923,23 +4687,17 @@
       <c r="K21" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="12">
-        <v>11</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="S21" s="12" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD21" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE21" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
@@ -3947,46 +4705,43 @@
         <v>134</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>136</v>
+      <c r="D22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="F22" s="19">
         <v>42563.34375</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="21" t="s">
-        <v>146</v>
+      <c r="H22" s="19">
+        <v>42563.345138888886</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L22" s="12">
-        <v>11</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="S22" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD22" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE22" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
@@ -3994,7 +4749,7 @@
         <v>134</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>138</v>
@@ -4005,32 +4760,33 @@
       <c r="E23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="19">
-        <v>42563.34375</v>
-      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>146</v>
-      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
         <v>139</v>
       </c>
+      <c r="L23" s="12">
+        <v>11</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="S23" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD23" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE23" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
@@ -4038,7 +4794,7 @@
         <v>134</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>138</v>
@@ -4049,26 +4805,35 @@
       <c r="E24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="19">
-        <v>42563.34375</v>
-      </c>
+      <c r="F24" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>146</v>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="12">
+        <v>11</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD24" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE24" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
@@ -4076,7 +4841,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>138</v>
@@ -4090,26 +4855,32 @@
       <c r="F25" s="19">
         <v>42563.34375</v>
       </c>
-      <c r="H25" s="19">
-        <v>42563.345138888886</v>
-      </c>
-      <c r="L25" s="43">
-        <v>123456.7899872</v>
+      <c r="G25" s="13"/>
+      <c r="H25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="12">
+        <v>11</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>152</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BA25" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD25" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
@@ -4117,7 +4888,7 @@
         <v>134</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>138</v>
@@ -4134,23 +4905,26 @@
       <c r="H26" s="19">
         <v>42563.345138888886</v>
       </c>
-      <c r="L26" s="12">
-        <v>11</v>
-      </c>
-      <c r="M26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>146</v>
       </c>
+      <c r="K26" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="S26" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD26" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
@@ -4158,7 +4932,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>138</v>
@@ -4173,28 +4947,22 @@
         <v>42563.34375</v>
       </c>
       <c r="H27" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="N27" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>152</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD27" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
@@ -4202,7 +4970,7 @@
         <v>134</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>138</v>
@@ -4217,25 +4985,25 @@
         <v>42563.34375</v>
       </c>
       <c r="H28" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="N28" s="12">
-        <v>11</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>146</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="L28" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD28" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
@@ -4243,7 +5011,7 @@
         <v>134</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>138</v>
@@ -4258,25 +5026,25 @@
         <v>42563.34375</v>
       </c>
       <c r="H29" s="19">
-        <v>42563.34513883102</v>
-      </c>
-      <c r="P29" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>152</v>
+        <v>42563.345138888886</v>
+      </c>
+      <c r="L29" s="12">
+        <v>11</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="BA29" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD29" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE29" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
@@ -4284,7 +5052,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>138</v>
@@ -4301,23 +5069,26 @@
       <c r="H30" s="19">
         <v>42563.34513883102</v>
       </c>
-      <c r="P30" s="12">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>146</v>
+      <c r="N30" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC30" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD30" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
@@ -4325,7 +5096,7 @@
         <v>134</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>138</v>
@@ -4342,23 +5113,23 @@
       <c r="H31" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="N31" s="12">
+        <v>11</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="S31" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD31" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
@@ -4366,7 +5137,7 @@
         <v>134</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>138</v>
@@ -4383,23 +5154,23 @@
       <c r="H32" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="P32" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="S32" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="U32" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="BA32" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD32" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE32" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
@@ -4407,7 +5178,7 @@
         <v>134</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>138</v>
@@ -4424,23 +5195,23 @@
       <c r="H33" s="19">
         <v>42563.34513883102</v>
       </c>
+      <c r="P33" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="S33" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="U33" s="12">
-        <v>11</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="BA33" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD33" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE33" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
@@ -4448,7 +5219,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>138</v>
@@ -4466,22 +5237,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="W34" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="X34" s="12">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA34" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD34" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE34" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
@@ -4489,7 +5260,7 @@
         <v>134</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>138</v>
@@ -4507,22 +5278,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="X35" s="21" t="s">
-        <v>146</v>
+        <v>190</v>
+      </c>
+      <c r="U35" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="BA35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD35" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE35" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
@@ -4530,7 +5301,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>138</v>
@@ -4548,22 +5319,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y36" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="Z36" s="12" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="U36" s="12">
+        <v>11</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA36" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD36" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE36" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
@@ -4571,7 +5342,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>138</v>
@@ -4589,22 +5360,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>11</v>
-      </c>
-      <c r="Z37" s="21" t="s">
-        <v>146</v>
+        <v>188</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X37" s="12">
+        <v>1</v>
       </c>
       <c r="BA37" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD37" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE37" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
@@ -4612,7 +5383,7 @@
         <v>134</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>138</v>
@@ -4630,22 +5401,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA38" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AB38" s="12" t="s">
-        <v>152</v>
+        <v>191</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC38" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD38" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE38" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
@@ -4653,7 +5424,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>138</v>
@@ -4671,25 +5442,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA39" s="12">
-        <v>11</v>
-      </c>
-      <c r="AB39" s="21" t="s">
-        <v>146</v>
+        <v>192</v>
+      </c>
+      <c r="Y39" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="Z39" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD39" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE39" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
@@ -4697,7 +5465,7 @@
         <v>134</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>138</v>
@@ -4715,19 +5483,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC40" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>11</v>
+      </c>
+      <c r="Z40" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA40" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD40" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE40" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
@@ -4735,7 +5506,7 @@
         <v>134</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>138</v>
@@ -4753,19 +5524,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD41" s="21" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="AA41" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AB41" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA41" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD41" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE41" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
@@ -4773,7 +5547,7 @@
         <v>134</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>138</v>
@@ -4791,22 +5565,25 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE42" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AF42" s="12" t="s">
-        <v>152</v>
+        <v>195</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC42" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD42" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE42" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
@@ -4814,7 +5591,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>138</v>
@@ -4832,25 +5609,19 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE43" s="12">
-        <v>11</v>
-      </c>
-      <c r="AF43" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC43" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD43" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE43" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
@@ -4858,7 +5629,7 @@
         <v>134</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>138</v>
@@ -4876,22 +5647,19 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG44" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AH44" s="12" t="s">
-        <v>152</v>
+        <v>197</v>
+      </c>
+      <c r="AD44" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA44" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD44" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE44" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
@@ -4899,7 +5667,7 @@
         <v>134</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>138</v>
@@ -4917,22 +5685,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG45" s="12">
-        <v>11</v>
-      </c>
-      <c r="AH45" s="21" t="s">
-        <v>146</v>
+        <v>216</v>
+      </c>
+      <c r="AE45" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AF45" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA45" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD45" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE45" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
@@ -4940,7 +5708,7 @@
         <v>134</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>138</v>
@@ -4958,22 +5726,25 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI46" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AJ46" s="12" t="s">
-        <v>152</v>
+        <v>217</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>11</v>
+      </c>
+      <c r="AF46" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA46" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC46" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD46" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE46" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
@@ -4981,7 +5752,7 @@
         <v>134</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>138</v>
@@ -4999,25 +5770,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI47" s="12">
-        <v>11</v>
-      </c>
-      <c r="AJ47" s="21" t="s">
-        <v>146</v>
+        <v>214</v>
+      </c>
+      <c r="AG47" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AH47" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD47" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE47" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
@@ -5025,7 +5793,7 @@
         <v>134</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>138</v>
@@ -5043,22 +5811,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S48" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK48" s="43">
-        <v>123456.7899872</v>
-      </c>
-      <c r="AL48" s="12" t="s">
-        <v>152</v>
+        <v>215</v>
+      </c>
+      <c r="AG48" s="12">
+        <v>11</v>
+      </c>
+      <c r="AH48" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA48" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD48" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE48" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
@@ -5066,7 +5834,7 @@
         <v>134</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>138</v>
@@ -5084,22 +5852,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK49" s="12">
-        <v>11</v>
-      </c>
-      <c r="AL49" s="21" t="s">
-        <v>146</v>
+        <v>212</v>
+      </c>
+      <c r="AI49" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AJ49" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA49" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD49" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE49" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
@@ -5107,7 +5875,7 @@
         <v>134</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>138</v>
@@ -5125,19 +5893,25 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S50" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM50" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI50" s="12">
+        <v>11</v>
+      </c>
+      <c r="AJ50" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA50" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC50" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD50" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE50" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
@@ -5145,7 +5919,7 @@
         <v>134</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>138</v>
@@ -5163,22 +5937,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN51" s="21" t="s">
-        <v>146</v>
+        <v>210</v>
+      </c>
+      <c r="AK51" s="25">
+        <v>123456.7899872</v>
+      </c>
+      <c r="AL51" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="BA51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC51" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD51" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE51" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.25">
@@ -5186,7 +5960,7 @@
         <v>134</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>138</v>
@@ -5204,22 +5978,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN52" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO52" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK52" s="12">
+        <v>11</v>
+      </c>
+      <c r="AL52" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA52" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD52" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE52" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
@@ -5227,7 +6001,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>138</v>
@@ -5245,19 +6019,19 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP53" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM53" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA53" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD53" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE53" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
@@ -5265,10 +6039,10 @@
         <v>134</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>132</v>
@@ -5283,20 +6057,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN54" s="21"/>
-      <c r="AP54" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="AN54" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="BA54" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC54" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD54" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE54" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
@@ -5304,10 +6080,10 @@
         <v>134</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>132</v>
@@ -5322,26 +6098,22 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AN55" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AO55" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP55" s="21"/>
+      <c r="AO55" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="BA55" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC55" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD55" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE55" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
@@ -5349,7 +6121,7 @@
         <v>134</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>138</v>
@@ -5367,19 +6139,19 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR56" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP56" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA56" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="BD56" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BE56" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.25">
@@ -5387,10 +6159,10 @@
         <v>134</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>132</v>
@@ -5405,22 +6177,20 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR57" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS57" s="21" t="s">
-        <v>146</v>
+        <v>228</v>
+      </c>
+      <c r="AN57" s="21"/>
+      <c r="AP57" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="BA57" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BD57" s="1">
-        <v>1.1100000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BE57" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
@@ -5428,10 +6198,10 @@
         <v>134</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>132</v>
@@ -5446,19 +6216,26 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT58" s="21" t="s">
-        <v>146</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AN58" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO58" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP58" s="21"/>
       <c r="BA58" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="BC58" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BD58" s="1">
-        <v>7.7</v>
+        <v>0.02</v>
       </c>
       <c r="BE58" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
@@ -5466,7 +6243,7 @@
         <v>134</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>138</v>
@@ -5484,22 +6261,19 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU59" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR59" s="21" t="s">
         <v>146</v>
       </c>
       <c r="BA59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC59" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="BD59" s="1">
-        <v>0.02</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE59" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
@@ -5507,7 +6281,7 @@
         <v>134</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>138</v>
@@ -5525,30 +6299,2165 @@
         <v>42563.34513883102</v>
       </c>
       <c r="S60" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR60" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS60" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD60" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE60" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H61" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT61" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD61" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE61" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H62" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU62" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD62" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE62" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H63" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S63" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AW60" s="21" t="s">
+      <c r="AW63" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BA60" s="1" t="s">
+      <c r="BA63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD63" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE63" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="BD60" s="1">
+      <c r="C64" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H64" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AY64" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD64" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE64" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H65" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AZ65" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA65" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD65" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE65" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H66" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD66" s="27"/>
+      <c r="BE66" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H67" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AZ67" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="BA67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE67" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H68" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA68" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD68" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE68" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H69" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB69" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD69" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE69" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H70" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC70" s="27"/>
+      <c r="BD70" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="BE60" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="BA61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD61" s="1">
+      <c r="BE70" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H71" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA71" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC71" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD71" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="BE61" s="1" t="s">
-        <v>255</v>
+      <c r="BE71" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H72" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD72" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE72" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H73" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="BA73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD73" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE73" s="32"/>
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H74" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S74" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD74" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF74" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H75" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD75" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG75" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H76" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD76" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH76" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H77" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD77" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI77" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H78" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD78" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ78" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H79" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD79" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK79" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H80" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD80" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BL80" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H81" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD81" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM81" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H82" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="BA82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD82" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN82" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H83" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD83" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO83" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H84" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD84" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP84" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H85" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD85" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ85" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H86" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S86" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD86" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BR86" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H87" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S87" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD87" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT87" s="27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H88" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S88" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD88" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BU88" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H89" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S89" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD89" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW89" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H90" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="BA90" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC90" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD90" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX90" s="29">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H91" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S91" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD91" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE91" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY91" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H92" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="BA92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD92" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY92" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H93" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S93" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="BA93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD93" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CA93" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F94" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H94" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S94" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC94" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD94" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CC94" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H95" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S95" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BA95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD95" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CD95" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H96" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S96" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BA96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD96" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE96" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H97" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S97" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BA97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD97" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CF97" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H98" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S98" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BA98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD98" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CG98" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H99" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S99" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD99" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CH99" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H100" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S100" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD100" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ100" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H101" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S101" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD101" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK101" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="CL101" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="CM101" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H102" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S102" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA102" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD102" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CN102" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H103" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S103" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA103" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD103" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE103" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO103" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H104" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S104" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD104" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE104" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CP104" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H105" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S105" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA105" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD105" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CQ105" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H106" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S106" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA106" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC106" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD106" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE106" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CR106" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H107" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S107" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD107" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE107" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CR107" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="CS107" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H108" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S108" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD108" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE108" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CT108" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H109" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S109" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD109" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE109" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CU109" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H110" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S110" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD110" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE110" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW110" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H111" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S111" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD111" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX111" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H112" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="S112" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA112" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD112" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CR112" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H113" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="BA113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD113" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="BE113" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H114" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="BA114" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC114" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD114" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="BE114" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H115" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="BA115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD115" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BE115" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="19">
+        <v>42563.34375</v>
+      </c>
+      <c r="H116" s="19">
+        <v>42563.34513883102</v>
+      </c>
+      <c r="BA116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD116" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="BE116" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BA117" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD117" s="1">
+        <v>-29.742000000000001</v>
+      </c>
+      <c r="BE117" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5564,4 +8473,539 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.44042824074074072</v>
+      </c>
+      <c r="E7">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F7">
+        <v>8.75</v>
+      </c>
+      <c r="G7">
+        <v>87.6</v>
+      </c>
+      <c r="H7">
+        <v>10.17</v>
+      </c>
+      <c r="I7">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F8">
+        <v>8.61</v>
+      </c>
+      <c r="G8">
+        <v>89.2</v>
+      </c>
+      <c r="H8">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.45773148148148146</v>
+      </c>
+      <c r="E9">
+        <v>5.22</v>
+      </c>
+      <c r="F9">
+        <v>8.51</v>
+      </c>
+      <c r="G9">
+        <v>87.9</v>
+      </c>
+      <c r="H9">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.55708333333333326</v>
+      </c>
+      <c r="E10">
+        <v>5.48</v>
+      </c>
+      <c r="F10">
+        <v>8.81</v>
+      </c>
+      <c r="G10">
+        <v>91.7</v>
+      </c>
+      <c r="H10">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.56436342592592592</v>
+      </c>
+      <c r="E11">
+        <v>6.23</v>
+      </c>
+      <c r="F11">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G11">
+        <v>90.4</v>
+      </c>
+      <c r="H11">
+        <v>11.33</v>
+      </c>
+      <c r="I11">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C12" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.51109953703703703</v>
+      </c>
+      <c r="E12">
+        <v>5.29</v>
+      </c>
+      <c r="F12">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G12">
+        <v>91.2</v>
+      </c>
+      <c r="H12">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.5301851851851852</v>
+      </c>
+      <c r="E13">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F13">
+        <v>8.86</v>
+      </c>
+      <c r="G13">
+        <v>91.1</v>
+      </c>
+      <c r="H13">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.48324074074074069</v>
+      </c>
+      <c r="E14">
+        <v>6.44</v>
+      </c>
+      <c r="F14">
+        <v>8.39</v>
+      </c>
+      <c r="G14">
+        <v>89.2</v>
+      </c>
+      <c r="H14">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.49569444444444444</v>
+      </c>
+      <c r="E15">
+        <v>5.39</v>
+      </c>
+      <c r="F15">
+        <v>8.25</v>
+      </c>
+      <c r="G15">
+        <v>87.3</v>
+      </c>
+      <c r="H15">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0.60004629629629636</v>
+      </c>
+      <c r="E16">
+        <v>6.04</v>
+      </c>
+      <c r="F16">
+        <v>8.01</v>
+      </c>
+      <c r="G16">
+        <v>84.5</v>
+      </c>
+      <c r="H16">
+        <v>10.62</v>
+      </c>
+      <c r="I16">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0.46567129629629633</v>
+      </c>
+      <c r="E17">
+        <v>5.22</v>
+      </c>
+      <c r="F17">
+        <v>8.57</v>
+      </c>
+      <c r="G17">
+        <v>89.7</v>
+      </c>
+      <c r="H17">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.45807870370370374</v>
+      </c>
+      <c r="E18">
+        <v>5.24</v>
+      </c>
+      <c r="F18">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G18">
+        <v>86.3</v>
+      </c>
+      <c r="H18">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0.55767361111111113</v>
+      </c>
+      <c r="E19">
+        <v>5.44</v>
+      </c>
+      <c r="F19">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="G19">
+        <v>93.5</v>
+      </c>
+      <c r="H19">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.56511574074074067</v>
+      </c>
+      <c r="E20">
+        <v>6.22</v>
+      </c>
+      <c r="F20">
+        <v>8.98</v>
+      </c>
+      <c r="G20">
+        <v>90.1</v>
+      </c>
+      <c r="H20">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.51175925925925925</v>
+      </c>
+      <c r="E21">
+        <v>5.44</v>
+      </c>
+      <c r="F21">
+        <v>8.82</v>
+      </c>
+      <c r="G21">
+        <v>90.6</v>
+      </c>
+      <c r="H21">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0.53145833333333337</v>
+      </c>
+      <c r="E22">
+        <v>11.58</v>
+      </c>
+      <c r="F22">
+        <v>9.4</v>
+      </c>
+      <c r="G22">
+        <v>89.4</v>
+      </c>
+      <c r="H22">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.4841435185185185</v>
+      </c>
+      <c r="E23">
+        <v>6.06</v>
+      </c>
+      <c r="F23">
+        <v>8.26</v>
+      </c>
+      <c r="G23">
+        <v>86.5</v>
+      </c>
+      <c r="H23">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="35">
+        <v>42061</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0.49646990740740743</v>
+      </c>
+      <c r="E24">
+        <v>5.64</v>
+      </c>
+      <c r="F24">
+        <v>7.78</v>
+      </c>
+      <c r="G24">
+        <v>84.7</v>
+      </c>
+      <c r="H24">
+        <v>10.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>